--- a/biology/Écologie/Gueorgui_Noskov/Gueorgui_Noskov.xlsx
+++ b/biology/Écologie/Gueorgui_Noskov/Gueorgui_Noskov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gueorgui Alexandrovitch Noskov (en russe : Гео́ргий Алекса́ндрович Носко́в), né le 8 février 1937 à Léningrad et mort le 9 janvier 2017, est un ornithologue russe, professeur, docteur en sciences biologiques et nécrologue. Fondateur de la Station ornithologique de Ladoga et président de la société ornithologique de Saint-Pétersbourg[1]. Il est l'auteur de neuf monographies.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gueorgui Alexandrovitch Noskov (en russe : Гео́ргий Алекса́ндрович Носко́в), né le 8 février 1937 à Léningrad et mort le 9 janvier 2017, est un ornithologue russe, professeur, docteur en sciences biologiques et nécrologue. Fondateur de la Station ornithologique de Ladoga et président de la société ornithologique de Saint-Pétersbourg. Il est l'auteur de neuf monographies.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gueorgui Noskov naît le 8 février 1937 à Léningrad. Sa passion pour la nature et les oiseaux s'est manifestée depuis son enfance. En 1955, il entre à la Faculté biologique et du sol de l'université de Léningrad. Son père, Alexandre Nikolaïevitch Noskov, originaire de Samara, arrive à Léningrad dans les années 1930 et a combattu en durant la Guerre d'Hiver durant laquelle il est blessé.
-Il mène des recherches fondamentales sur la migration des oiseaux, participe à la création de réserves naturelles protégées et coordonne des projets de protection des oiseaux avec la Finlande[2].
-Il meurt le 9 janvier 2017, avant d'atteindre son quatre-vingtième anniversaire. La fille du scientifique, son mari (également ornithologue) et leur fille sont rapidement morts dans un incendie[3].
+Il mène des recherches fondamentales sur la migration des oiseaux, participe à la création de réserves naturelles protégées et coordonne des projets de protection des oiseaux avec la Finlande.
+Il meurt le 9 janvier 2017, avant d'atteindre son quatre-vingtième anniversaire. La fille du scientifique, son mari (également ornithologue) et leur fille sont rapidement morts dans un incendie.
 </t>
         </is>
       </c>
